--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N2">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O2">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P2">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q2">
-        <v>1417.79235564912</v>
+        <v>694.5835039110706</v>
       </c>
       <c r="R2">
-        <v>12760.13120084208</v>
+        <v>6251.251535199635</v>
       </c>
       <c r="S2">
-        <v>0.06880875215180322</v>
+        <v>0.0249651602263116</v>
       </c>
       <c r="T2">
-        <v>0.06880875215180322</v>
+        <v>0.02496516022631159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.357969</v>
       </c>
       <c r="O3">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P3">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q3">
-        <v>7.033172299535332</v>
+        <v>2.810351640567333</v>
       </c>
       <c r="R3">
-        <v>63.29855069581799</v>
+        <v>25.293164765106</v>
       </c>
       <c r="S3">
-        <v>0.0003413361679313658</v>
+        <v>0.0001010114386592516</v>
       </c>
       <c r="T3">
-        <v>0.0003413361679313658</v>
+        <v>0.0001010114386592516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N4">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O4">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P4">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q4">
-        <v>9.029629227922001</v>
+        <v>3.330564341398</v>
       </c>
       <c r="R4">
-        <v>81.266663051298</v>
+        <v>29.975079072582</v>
       </c>
       <c r="S4">
-        <v>0.0004382288542402955</v>
+        <v>0.0001197092530399149</v>
       </c>
       <c r="T4">
-        <v>0.0004382288542402954</v>
+        <v>0.0001197092530399148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N5">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O5">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P5">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q5">
-        <v>0.1000704125666667</v>
+        <v>0.2440723564906667</v>
       </c>
       <c r="R5">
-        <v>0.9006337131000001</v>
+        <v>2.196651208416</v>
       </c>
       <c r="S5">
-        <v>4.856649274904516E-06</v>
+        <v>8.77260322523162E-06</v>
       </c>
       <c r="T5">
-        <v>4.856649274904515E-06</v>
+        <v>8.772603225231618E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N6">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O6">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P6">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q6">
-        <v>16776.16486193912</v>
+        <v>20568.14441568407</v>
       </c>
       <c r="R6">
-        <v>150985.4837574521</v>
+        <v>185113.2997411567</v>
       </c>
       <c r="S6">
-        <v>0.8141861997234812</v>
+        <v>0.7392732738455765</v>
       </c>
       <c r="T6">
-        <v>0.8141861997234812</v>
+        <v>0.7392732738455765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.357969</v>
       </c>
       <c r="O7">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P7">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q7">
         <v>83.22068991929922</v>
@@ -883,10 +883,10 @@
         <v>748.9862092736929</v>
       </c>
       <c r="S7">
-        <v>0.004038893145207716</v>
+        <v>0.002991170746614078</v>
       </c>
       <c r="T7">
-        <v>0.004038893145207715</v>
+        <v>0.002991170746614078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N8">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O8">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P8">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q8">
-        <v>106.8439591779637</v>
+        <v>98.62533154598569</v>
       </c>
       <c r="R8">
-        <v>961.5956326016731</v>
+        <v>887.627983913871</v>
       </c>
       <c r="S8">
-        <v>0.005185385205880835</v>
+        <v>0.003544854132806871</v>
       </c>
       <c r="T8">
-        <v>0.005185385205880834</v>
+        <v>0.003544854132806871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N9">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O9">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P9">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q9">
-        <v>1.184092813261111</v>
+        <v>7.227519006583112</v>
       </c>
       <c r="R9">
-        <v>10.65683531935</v>
+        <v>65.047671059248</v>
       </c>
       <c r="S9">
-        <v>5.746677120085925E-05</v>
+        <v>0.0002597760658323402</v>
       </c>
       <c r="T9">
-        <v>5.746677120085924E-05</v>
+        <v>0.0002597760658323402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N10">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O10">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P10">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q10">
-        <v>2160.42018086664</v>
+        <v>6286.466894772791</v>
       </c>
       <c r="R10">
-        <v>19443.78162779976</v>
+        <v>56578.20205295512</v>
       </c>
       <c r="S10">
-        <v>0.1048502033296309</v>
+        <v>0.2259521747949546</v>
       </c>
       <c r="T10">
-        <v>0.1048502033296309</v>
+        <v>0.2259521747949546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.357969</v>
       </c>
       <c r="O11">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P11">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q11">
-        <v>10.717089361419</v>
+        <v>25.43564949587244</v>
       </c>
       <c r="R11">
-        <v>96.45380425277099</v>
+        <v>228.920845462852</v>
       </c>
       <c r="S11">
-        <v>0.0005201252092525097</v>
+        <v>0.0009142242243721047</v>
       </c>
       <c r="T11">
-        <v>0.0005201252092525096</v>
+        <v>0.0009142242243721047</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N12">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O12">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P12">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q12">
-        <v>13.759273797759</v>
+        <v>30.14393856924934</v>
       </c>
       <c r="R12">
-        <v>123.833464179831</v>
+        <v>271.2954471232441</v>
       </c>
       <c r="S12">
-        <v>0.0006677694775024635</v>
+        <v>0.001083452532339084</v>
       </c>
       <c r="T12">
-        <v>0.0006677694775024633</v>
+        <v>0.001083452532339084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H13">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N13">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O13">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P13">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q13">
-        <v>0.15248646105</v>
+        <v>2.209025668430222</v>
       </c>
       <c r="R13">
-        <v>1.37237814945</v>
+        <v>19.881231015872</v>
       </c>
       <c r="S13">
-        <v>7.400521707631315E-06</v>
+        <v>7.939819970653436E-05</v>
       </c>
       <c r="T13">
-        <v>7.400521707631314E-06</v>
+        <v>7.939819970653436E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H14">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I14">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J14">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>158.44488</v>
+        <v>194.2587713333333</v>
       </c>
       <c r="N14">
-        <v>475.33464</v>
+        <v>582.776314</v>
       </c>
       <c r="O14">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="P14">
-        <v>0.9887284682052465</v>
+        <v>0.9908911906753961</v>
       </c>
       <c r="Q14">
-        <v>18.20051055064</v>
+        <v>19.49166610389156</v>
       </c>
       <c r="R14">
-        <v>163.80459495576</v>
+        <v>175.424994935024</v>
       </c>
       <c r="S14">
-        <v>0.0008833130003313437</v>
+        <v>0.0007005818085534634</v>
       </c>
       <c r="T14">
-        <v>0.0008833130003313437</v>
+        <v>0.0007005818085534633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H15">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I15">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J15">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.357969</v>
       </c>
       <c r="O15">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="P15">
-        <v>0.004904736329431949</v>
+        <v>0.004009241031003317</v>
       </c>
       <c r="Q15">
-        <v>0.09028637101344446</v>
+        <v>0.07886515516711111</v>
       </c>
       <c r="R15">
-        <v>0.8125773391210001</v>
+        <v>0.709786396504</v>
       </c>
       <c r="S15">
-        <v>4.381807040358554E-06</v>
+        <v>2.834621357883466E-06</v>
       </c>
       <c r="T15">
-        <v>4.381807040358553E-06</v>
+        <v>2.834621357883466E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H16">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I16">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J16">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.009103</v>
+        <v>0.9314810000000001</v>
       </c>
       <c r="N16">
-        <v>3.027309</v>
+        <v>2.794443</v>
       </c>
       <c r="O16">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712719</v>
       </c>
       <c r="P16">
-        <v>0.006297009177269212</v>
+        <v>0.004751375244712718</v>
       </c>
       <c r="Q16">
-        <v>0.1159153252423334</v>
+        <v>0.09346356156533335</v>
       </c>
       <c r="R16">
-        <v>1.043237927181</v>
+        <v>0.8411720540880001</v>
       </c>
       <c r="S16">
-        <v>5.625639645619096E-06</v>
+        <v>3.359326526849144E-06</v>
       </c>
       <c r="T16">
-        <v>5.625639645619095E-06</v>
+        <v>3.359326526849143E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H17">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I17">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J17">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01118333333333334</v>
+        <v>0.06826133333333334</v>
       </c>
       <c r="N17">
-        <v>0.03355</v>
+        <v>0.204784</v>
       </c>
       <c r="O17">
-        <v>6.978628805232043E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="P17">
-        <v>6.978628805232041E-05</v>
+        <v>0.0003481930488878283</v>
       </c>
       <c r="Q17">
-        <v>0.001284625772222223</v>
+        <v>0.006849251171555557</v>
       </c>
       <c r="R17">
-        <v>0.01156163195</v>
+        <v>0.06164326054400001</v>
       </c>
       <c r="S17">
-        <v>6.234586892534614E-08</v>
+        <v>2.461801237220709E-07</v>
       </c>
       <c r="T17">
-        <v>6.234586892534613E-08</v>
+        <v>2.461801237220709E-07</v>
       </c>
     </row>
   </sheetData>
